--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H2">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I2">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J2">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N2">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O2">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P2">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q2">
-        <v>8.519458448006629</v>
+        <v>9.657855577798999</v>
       </c>
       <c r="R2">
-        <v>8.519458448006629</v>
+        <v>86.92070020019101</v>
       </c>
       <c r="S2">
-        <v>0.03024900289618774</v>
+        <v>0.02863111202906091</v>
       </c>
       <c r="T2">
-        <v>0.03024900289618774</v>
+        <v>0.02863111202906091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H3">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I3">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J3">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N3">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O3">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P3">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q3">
-        <v>10.12406780353787</v>
+        <v>11.675632357402</v>
       </c>
       <c r="R3">
-        <v>10.12406780353787</v>
+        <v>105.080691216618</v>
       </c>
       <c r="S3">
-        <v>0.03594629379078342</v>
+        <v>0.03461289468889409</v>
       </c>
       <c r="T3">
-        <v>0.03594629379078342</v>
+        <v>0.03461289468889409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H4">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I4">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J4">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N4">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O4">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P4">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q4">
-        <v>11.81585377918867</v>
+        <v>15.849333883734</v>
       </c>
       <c r="R4">
-        <v>11.81585377918867</v>
+        <v>142.644004953606</v>
       </c>
       <c r="S4">
-        <v>0.04195311208674735</v>
+        <v>0.04698600536689692</v>
       </c>
       <c r="T4">
-        <v>0.04195311208674735</v>
+        <v>0.04698600536689693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H5">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I5">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J5">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N5">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O5">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P5">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q5">
-        <v>1.709588208042462</v>
+        <v>2.362663108338</v>
       </c>
       <c r="R5">
-        <v>1.709588208042462</v>
+        <v>21.263967975042</v>
       </c>
       <c r="S5">
-        <v>0.006070026513066058</v>
+        <v>0.007004212435859475</v>
       </c>
       <c r="T5">
-        <v>0.006070026513066058</v>
+        <v>0.007004212435859475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H6">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I6">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J6">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N6">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O6">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P6">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q6">
-        <v>8.353358675570684</v>
+        <v>8.816503954088112</v>
       </c>
       <c r="R6">
-        <v>8.353358675570684</v>
+        <v>79.34853558679301</v>
       </c>
       <c r="S6">
-        <v>0.02965925267577946</v>
+        <v>0.02613689036667936</v>
       </c>
       <c r="T6">
-        <v>0.02965925267577946</v>
+        <v>0.02613689036667936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H7">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I7">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J7">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N7">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O7">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P7">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q7">
-        <v>9.926683736398346</v>
+        <v>10.65850053526822</v>
       </c>
       <c r="R7">
-        <v>9.926683736398346</v>
+        <v>95.92650481741401</v>
       </c>
       <c r="S7">
-        <v>0.03524546623759994</v>
+        <v>0.03159756536311929</v>
       </c>
       <c r="T7">
-        <v>0.03524546623759994</v>
+        <v>0.03159756536311929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H8">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I8">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J8">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N8">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O8">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P8">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q8">
-        <v>11.58548577682827</v>
+        <v>14.46860679681533</v>
       </c>
       <c r="R8">
-        <v>11.58548577682827</v>
+        <v>130.217461171338</v>
       </c>
       <c r="S8">
-        <v>0.0411351724943289</v>
+        <v>0.0428927828509172</v>
       </c>
       <c r="T8">
-        <v>0.0411351724943289</v>
+        <v>0.0428927828509172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H9">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I9">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J9">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N9">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O9">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P9">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q9">
-        <v>1.676257191282651</v>
+        <v>2.156837868307334</v>
       </c>
       <c r="R9">
-        <v>1.676257191282651</v>
+        <v>19.411540814766</v>
       </c>
       <c r="S9">
-        <v>0.005951682133707492</v>
+        <v>0.006394035004828831</v>
       </c>
       <c r="T9">
-        <v>0.005951682133707492</v>
+        <v>0.006394035004828831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H10">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I10">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J10">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N10">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O10">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P10">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q10">
-        <v>20.44156546004234</v>
+        <v>22.64370200146144</v>
       </c>
       <c r="R10">
-        <v>20.44156546004234</v>
+        <v>203.793318013153</v>
       </c>
       <c r="S10">
-        <v>0.07257937538836282</v>
+        <v>0.06712819046982088</v>
       </c>
       <c r="T10">
-        <v>0.07257937538836282</v>
+        <v>0.06712819046982089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H11">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I11">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J11">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N11">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O11">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P11">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q11">
-        <v>24.2916607893485</v>
+        <v>27.37455925385489</v>
       </c>
       <c r="R11">
-        <v>24.2916607893485</v>
+        <v>246.371033284694</v>
       </c>
       <c r="S11">
-        <v>0.08624943968617395</v>
+        <v>0.08115301232552735</v>
       </c>
       <c r="T11">
-        <v>0.08624943968617395</v>
+        <v>0.08115301232552735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H12">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I12">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J12">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N12">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O12">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P12">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q12">
-        <v>28.35092746418497</v>
+        <v>37.16017396345533</v>
       </c>
       <c r="R12">
-        <v>28.35092746418497</v>
+        <v>334.441565671098</v>
       </c>
       <c r="S12">
-        <v>0.100662183190106</v>
+        <v>0.1101628715812243</v>
       </c>
       <c r="T12">
-        <v>0.100662183190106</v>
+        <v>0.1101628715812243</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H13">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I13">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J13">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N13">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O13">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P13">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q13">
-        <v>4.101981302883548</v>
+        <v>5.539473946787334</v>
       </c>
       <c r="R13">
-        <v>4.101981302883548</v>
+        <v>49.855265521086</v>
       </c>
       <c r="S13">
-        <v>0.01456440512836407</v>
+        <v>0.01642199946716092</v>
       </c>
       <c r="T13">
-        <v>0.01456440512836407</v>
+        <v>0.01642199946716092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H14">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I14">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J14">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N14">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O14">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P14">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q14">
-        <v>24.50265765413492</v>
+        <v>27.08859993733055</v>
       </c>
       <c r="R14">
-        <v>24.50265765413492</v>
+        <v>243.797399435975</v>
       </c>
       <c r="S14">
-        <v>0.08699860054105249</v>
+        <v>0.08030527411271098</v>
       </c>
       <c r="T14">
-        <v>0.08699860054105249</v>
+        <v>0.08030527411271099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H15">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I15">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J15">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N15">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O15">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P15">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q15">
-        <v>29.11764509108913</v>
+        <v>32.74811177256111</v>
       </c>
       <c r="R15">
-        <v>29.11764509108913</v>
+        <v>294.73300595305</v>
       </c>
       <c r="S15">
-        <v>0.1033844740326899</v>
+        <v>0.09708313086144589</v>
       </c>
       <c r="T15">
-        <v>0.1033844740326899</v>
+        <v>0.0970831308614459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H16">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I16">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J16">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N16">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O16">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P16">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q16">
-        <v>33.98335960081096</v>
+        <v>44.45461638881666</v>
       </c>
       <c r="R16">
-        <v>33.98335960081096</v>
+        <v>400.09154749935</v>
       </c>
       <c r="S16">
-        <v>0.1206605735870032</v>
+        <v>0.1317875476376922</v>
       </c>
       <c r="T16">
-        <v>0.1206605735870032</v>
+        <v>0.1317875476376922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H17">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I17">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J17">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N17">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O17">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P17">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q17">
-        <v>4.916915182679443</v>
+        <v>6.626857816716667</v>
       </c>
       <c r="R17">
-        <v>4.916915182679443</v>
+        <v>59.64172035045</v>
       </c>
       <c r="S17">
-        <v>0.01745789154426594</v>
+        <v>0.01964559389221192</v>
       </c>
       <c r="T17">
-        <v>0.01745789154426594</v>
+        <v>0.01964559389221192</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H18">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I18">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J18">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N18">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O18">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P18">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q18">
-        <v>8.348907697389906</v>
+        <v>8.964435446151779</v>
       </c>
       <c r="R18">
-        <v>8.348907697389906</v>
+        <v>80.67991901536601</v>
       </c>
       <c r="S18">
-        <v>0.02964344912996691</v>
+        <v>0.02657543938905625</v>
       </c>
       <c r="T18">
-        <v>0.02964344912996691</v>
+        <v>0.02657543938905626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H19">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I19">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J19">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N19">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O19">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P19">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q19">
-        <v>9.921394432486686</v>
+        <v>10.83733875680756</v>
       </c>
       <c r="R19">
-        <v>9.921394432486686</v>
+        <v>97.536048811268</v>
       </c>
       <c r="S19">
-        <v>0.03522668615077646</v>
+        <v>0.03212773866243235</v>
       </c>
       <c r="T19">
-        <v>0.03522668615077646</v>
+        <v>0.03212773866243235</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H20">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I20">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J20">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N20">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O20">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P20">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q20">
-        <v>11.5793126018924</v>
+        <v>14.71137452001733</v>
       </c>
       <c r="R20">
-        <v>11.5793126018924</v>
+        <v>132.402370680156</v>
       </c>
       <c r="S20">
-        <v>0.04111325415437179</v>
+        <v>0.04361247780017844</v>
       </c>
       <c r="T20">
-        <v>0.04111325415437179</v>
+        <v>0.04361247780017845</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H21">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I21">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J21">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N21">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O21">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P21">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q21">
-        <v>1.675364019509051</v>
+        <v>2.193027297321334</v>
       </c>
       <c r="R21">
-        <v>1.675364019509051</v>
+        <v>19.737245675892</v>
       </c>
       <c r="S21">
-        <v>0.005948510857536444</v>
+        <v>0.006501320062885551</v>
       </c>
       <c r="T21">
-        <v>0.005948510857536444</v>
+        <v>0.006501320062885551</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H22">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I22">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J22">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.29130575174046</v>
+        <v>2.396544333333333</v>
       </c>
       <c r="N22">
-        <v>2.29130575174046</v>
+        <v>7.189633000000001</v>
       </c>
       <c r="O22">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="P22">
-        <v>0.2648346811986808</v>
+        <v>0.2442214476712194</v>
       </c>
       <c r="Q22">
-        <v>4.423223476769969</v>
+        <v>5.209757456396779</v>
       </c>
       <c r="R22">
-        <v>4.423223476769969</v>
+        <v>46.887817107571</v>
       </c>
       <c r="S22">
-        <v>0.0157050005673314</v>
+        <v>0.01544454130389109</v>
       </c>
       <c r="T22">
-        <v>0.0157050005673314</v>
+        <v>0.01544454130389109</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H23">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I23">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J23">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.72286494861471</v>
+        <v>2.897244666666667</v>
       </c>
       <c r="N23">
-        <v>2.72286494861471</v>
+        <v>8.691734</v>
       </c>
       <c r="O23">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="P23">
-        <v>0.3147153408337973</v>
+        <v>0.2952456488743109</v>
       </c>
       <c r="Q23">
-        <v>5.2563217089811</v>
+        <v>6.298211051317557</v>
       </c>
       <c r="R23">
-        <v>5.2563217089811</v>
+        <v>56.683899461858</v>
       </c>
       <c r="S23">
-        <v>0.01866298093577368</v>
+        <v>0.01867130697289201</v>
       </c>
       <c r="T23">
-        <v>0.01866298093577368</v>
+        <v>0.01867130697289201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H24">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I24">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J24">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.17787027088722</v>
+        <v>3.932926</v>
       </c>
       <c r="N24">
-        <v>3.17787027088722</v>
+        <v>11.798778</v>
       </c>
       <c r="O24">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664563</v>
       </c>
       <c r="P24">
-        <v>0.3673059605606545</v>
+        <v>0.4007874454664564</v>
       </c>
       <c r="Q24">
-        <v>6.134681230403461</v>
+        <v>8.549639691187334</v>
       </c>
       <c r="R24">
-        <v>6.134681230403461</v>
+        <v>76.94675722068601</v>
       </c>
       <c r="S24">
-        <v>0.02178166504809725</v>
+        <v>0.02534576022954738</v>
       </c>
       <c r="T24">
-        <v>0.02178166504809725</v>
+        <v>0.02534576022954739</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H25">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I25">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J25">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.459793227245788</v>
+        <v>0.5862820000000001</v>
       </c>
       <c r="N25">
-        <v>0.459793227245788</v>
+        <v>1.758846</v>
       </c>
       <c r="O25">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="P25">
-        <v>0.05314401740686759</v>
+        <v>0.05974545798801324</v>
       </c>
       <c r="Q25">
-        <v>0.8876022746717946</v>
+        <v>1.274496356511334</v>
       </c>
       <c r="R25">
-        <v>0.8876022746717946</v>
+        <v>11.470467208602</v>
       </c>
       <c r="S25">
-        <v>0.003151501229927596</v>
+        <v>0.003778297125066553</v>
       </c>
       <c r="T25">
-        <v>0.003151501229927596</v>
+        <v>0.003778297125066553</v>
       </c>
     </row>
   </sheetData>
